--- a/src/Datafile/Newfile.xlsx
+++ b/src/Datafile/Newfile.xlsx
@@ -62,17 +62,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B3:E3"/>
+  <dimension ref="C5:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="3">
-      <c r="B3" t="s" s="0">
+    <row r="5">
+      <c r="C5" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>1</v>
       </c>
     </row>
